--- a/data/donnees_environnement_capteurs.xlsx
+++ b/data/donnees_environnement_capteurs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahar.masmoudi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Desktop\Files\Dev\Categorisation-de-capteurs-de-pollution\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FF9FC-DA74-405C-8EDF-8FEC186B45C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFF08F7-2935-48E2-BE4F-344EA46C068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10128" xr2:uid="{41B6C650-FBE8-4002-8D18-009D485C16A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41B6C650-FBE8-4002-8D18-009D485C16A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -962,7 +962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -993,10 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1004,16 +1000,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1021,13 +1011,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,70 +1355,70 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="41"/>
-    <col min="17" max="17" width="18.88671875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="34"/>
+    <col min="17" max="17" width="18.85546875" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="29" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1483,12 +1466,12 @@
       <c r="P2" s="5">
         <v>3242</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1536,12 +1519,12 @@
       <c r="P3" s="5">
         <v>3242</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1589,12 +1572,12 @@
       <c r="P4" s="5">
         <v>3242</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1642,12 +1625,12 @@
       <c r="P5" s="5">
         <v>3242</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="30">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1695,12 +1678,12 @@
       <c r="P6" s="5">
         <v>3242</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1748,12 +1731,12 @@
       <c r="P7" s="5">
         <v>3242</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1798,15 +1781,15 @@
       <c r="O8" s="5">
         <v>233</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <v>3242</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1851,15 +1834,15 @@
       <c r="O9" s="5">
         <v>302</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <v>3242</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1904,15 +1887,15 @@
       <c r="O10" s="5">
         <v>302</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>3242</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="Q10" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1957,15 +1940,15 @@
       <c r="O11" s="5">
         <v>302</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>3242</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2010,15 +1993,15 @@
       <c r="O12" s="5">
         <v>0</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="15">
         <v>3242</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2063,15 +2046,15 @@
       <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <v>3242</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2116,15 +2099,15 @@
       <c r="O14" s="5">
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="15">
         <v>3242</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2169,15 +2152,15 @@
       <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>3242</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2222,15 +2205,15 @@
       <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15">
         <v>3242</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2275,15 +2258,15 @@
       <c r="O17" s="5">
         <v>0</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="15">
         <v>3242</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2328,15 +2311,15 @@
       <c r="O18" s="5">
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="15">
         <v>3242</v>
       </c>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2381,15 +2364,15 @@
       <c r="O19" s="5">
         <v>247</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="15">
         <v>3242</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2434,15 +2417,15 @@
       <c r="O20" s="5">
         <v>247</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>3242</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="30">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2487,15 +2470,15 @@
       <c r="O21" s="5">
         <v>247</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>3242</v>
       </c>
-      <c r="Q21" s="37" t="s">
+      <c r="Q21" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2540,15 +2523,15 @@
       <c r="O22" s="5">
         <v>80</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>3242</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2593,15 +2576,15 @@
       <c r="O23" s="5">
         <v>80</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="15">
         <v>3242</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2646,15 +2629,15 @@
       <c r="O24" s="5">
         <v>80</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="15">
         <v>3242</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="Q24" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2699,15 +2682,15 @@
       <c r="O25" s="5">
         <v>78</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="15">
         <v>2182</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2752,15 +2735,15 @@
       <c r="O26" s="5">
         <v>78</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="15">
         <v>2182</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="Q26" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2805,15 +2788,15 @@
       <c r="O27" s="5">
         <v>78</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="15">
         <v>3242</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2858,15 +2841,15 @@
       <c r="O28" s="5">
         <v>78</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="15">
         <v>2182</v>
       </c>
-      <c r="Q28" s="37" t="s">
+      <c r="Q28" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2911,15 +2894,15 @@
       <c r="O29" s="5">
         <v>109</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="15">
         <v>3242</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2964,15 +2947,15 @@
       <c r="O30" s="5">
         <v>109</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="15">
         <v>3242</v>
       </c>
-      <c r="Q30" s="37" t="s">
+      <c r="Q30" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3017,15 +3000,15 @@
       <c r="O31" s="5">
         <v>109</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="15">
         <v>3242</v>
       </c>
-      <c r="Q31" s="37" t="s">
+      <c r="Q31" s="30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3070,15 +3053,15 @@
       <c r="O32" s="5">
         <v>58</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="15">
         <v>2036</v>
       </c>
-      <c r="Q32" s="37" t="s">
+      <c r="Q32" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3123,15 +3106,15 @@
       <c r="O33" s="5">
         <v>58</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="15">
         <v>2182</v>
       </c>
-      <c r="Q33" s="37" t="s">
+      <c r="Q33" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3176,36 +3159,36 @@
       <c r="O34" s="5">
         <v>58</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="15">
         <v>2182</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>120</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -3220,24 +3203,24 @@
       <c r="L35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="9">
         <v>800</v>
       </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10">
-        <v>0</v>
-      </c>
-      <c r="P35" s="42">
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="35">
         <v>2565</v>
       </c>
-      <c r="Q35" s="37" t="s">
+      <c r="Q35" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3246,13 +3229,13 @@
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3273,24 +3256,24 @@
       <c r="L36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>800</v>
       </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
-      <c r="O36" s="10">
-        <v>0</v>
-      </c>
-      <c r="P36" s="42">
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="35">
         <v>2565</v>
       </c>
-      <c r="Q36" s="37" t="s">
+      <c r="Q36" s="30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>125</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3299,7 +3282,7 @@
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -3326,24 +3309,24 @@
       <c r="L37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="9">
         <v>800</v>
       </c>
-      <c r="N37" s="10">
-        <v>0</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0</v>
-      </c>
-      <c r="P37" s="42">
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="35">
         <v>2565</v>
       </c>
-      <c r="Q37" s="37" t="s">
+      <c r="Q37" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
         <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3388,15 +3371,15 @@
       <c r="O38" s="5">
         <v>373</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="15">
         <v>2991</v>
       </c>
-      <c r="Q38" s="37" t="s">
+      <c r="Q38" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
         <v>129</v>
       </c>
       <c r="B39" t="s">
@@ -3408,7 +3391,7 @@
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3420,36 +3403,36 @@
       <c r="H39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="13">
         <v>22682</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="12">
         <v>646</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="12">
         <v>373</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="14">
         <v>2991</v>
       </c>
-      <c r="Q39" s="37" t="s">
+      <c r="Q39" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>131</v>
       </c>
       <c r="B40" t="s">
@@ -3473,7 +3456,7 @@
       <c r="H40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="5" t="s">
@@ -3494,21 +3477,21 @@
       <c r="O40" s="5">
         <v>373</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="15">
         <v>2991</v>
       </c>
-      <c r="Q40" s="37" t="s">
+      <c r="Q40" s="30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>133</v>
       </c>
       <c r="B41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3523,10 +3506,10 @@
       <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -3547,15 +3530,15 @@
       <c r="O41" s="5">
         <v>69</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="15">
         <v>2112</v>
       </c>
-      <c r="Q41" s="37" t="s">
+      <c r="Q41" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>137</v>
       </c>
       <c r="B42" t="s">
@@ -3567,7 +3550,7 @@
       <c r="D42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -3579,13 +3562,13 @@
       <c r="H42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -3600,15 +3583,15 @@
       <c r="O42" s="5">
         <v>69</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="15">
         <v>2112</v>
       </c>
-      <c r="Q42" s="37" t="s">
+      <c r="Q42" s="30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B43" t="s">
@@ -3632,7 +3615,7 @@
       <c r="H43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="5" t="s">
@@ -3653,15 +3636,15 @@
       <c r="O43" s="5">
         <v>69</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="15">
         <v>2112</v>
       </c>
-      <c r="Q43" s="37" t="s">
+      <c r="Q43" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B44" t="s">
@@ -3685,7 +3668,7 @@
       <c r="H44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J44" s="5" t="s">
@@ -3706,15 +3689,15 @@
       <c r="O44" s="5">
         <v>69</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="15">
         <v>2112</v>
       </c>
-      <c r="Q44" s="37" t="s">
+      <c r="Q44" s="30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B45" t="s">
@@ -3738,7 +3721,7 @@
       <c r="H45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -3759,15 +3742,15 @@
       <c r="O45" s="5">
         <v>69</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45" s="15">
         <v>2112</v>
       </c>
-      <c r="Q45" s="37" t="s">
+      <c r="Q45" s="30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
@@ -3791,7 +3774,7 @@
       <c r="H46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J46" s="5" t="s">
@@ -3812,21 +3795,21 @@
       <c r="O46" s="5">
         <v>69</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46" s="15">
         <v>2112</v>
       </c>
-      <c r="Q46" s="37" t="s">
+      <c r="Q46" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3844,7 +3827,7 @@
       <c r="H47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -3865,15 +3848,15 @@
       <c r="O47" s="5">
         <v>0</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="15">
         <v>2036</v>
       </c>
-      <c r="Q47" s="37" t="s">
+      <c r="Q47" s="30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B48" t="s">
@@ -3897,7 +3880,7 @@
       <c r="H48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="5" t="s">
@@ -3918,15 +3901,15 @@
       <c r="O48" s="5">
         <v>0</v>
       </c>
-      <c r="P48" s="16">
+      <c r="P48" s="15">
         <v>2036</v>
       </c>
-      <c r="Q48" s="37" t="s">
+      <c r="Q48" s="30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B49" t="s">
@@ -3950,7 +3933,7 @@
       <c r="H49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="5" t="s">
@@ -3971,15 +3954,15 @@
       <c r="O49" s="5">
         <v>0</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49" s="15">
         <v>2112</v>
       </c>
-      <c r="Q49" s="37" t="s">
+      <c r="Q49" s="30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="40" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B50" t="s">
@@ -4000,10 +3983,10 @@
       <c r="G50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J50" s="5" t="s">
@@ -4024,21 +4007,21 @@
       <c r="O50" s="5">
         <v>0</v>
       </c>
-      <c r="P50" s="16">
+      <c r="P50" s="15">
         <v>2112</v>
       </c>
-      <c r="Q50" s="37" t="s">
+      <c r="Q50" s="30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>154</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -4056,7 +4039,7 @@
       <c r="H51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J51" s="5" t="s">
@@ -4077,15 +4060,15 @@
       <c r="O51" s="5">
         <v>511</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P51" s="15">
         <v>2270</v>
       </c>
-      <c r="Q51" s="37" t="s">
+      <c r="Q51" s="30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="40" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B52" t="s">
@@ -4106,16 +4089,16 @@
       <c r="G52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="18" t="s">
+      <c r="K52" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -4130,15 +4113,15 @@
       <c r="O52" s="5">
         <v>511</v>
       </c>
-      <c r="P52" s="16">
+      <c r="P52" s="15">
         <v>2270</v>
       </c>
-      <c r="Q52" s="37" t="s">
+      <c r="Q52" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="40" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
         <v>158</v>
       </c>
       <c r="B53" t="s">
@@ -4162,7 +4145,7 @@
       <c r="H53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="5" t="s">
@@ -4183,24 +4166,24 @@
       <c r="O53" s="5">
         <v>0</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="15">
         <v>2565</v>
       </c>
-      <c r="Q53" s="37" t="s">
+      <c r="Q53" s="30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="18" t="s">
         <v>161</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -4236,15 +4219,15 @@
       <c r="O54" s="5">
         <v>0</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P54" s="15">
         <v>2565</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="30">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
         <v>162</v>
       </c>
       <c r="B55" t="s">
@@ -4265,10 +4248,10 @@
       <c r="G55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J55" s="5" t="s">
@@ -4289,15 +4272,15 @@
       <c r="O55" s="5">
         <v>0</v>
       </c>
-      <c r="P55" s="16">
+      <c r="P55" s="15">
         <v>2991</v>
       </c>
-      <c r="Q55" s="37" t="s">
+      <c r="Q55" s="30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>164</v>
       </c>
       <c r="B56" t="s">
@@ -4321,7 +4304,7 @@
       <c r="H56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J56" s="5" t="s">
@@ -4342,21 +4325,21 @@
       <c r="O56" s="5">
         <v>0</v>
       </c>
-      <c r="P56" s="16">
+      <c r="P56" s="15">
         <v>3242</v>
       </c>
-      <c r="Q56" s="37" t="s">
+      <c r="Q56" s="30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="40" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B57" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -4374,7 +4357,7 @@
       <c r="H57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J57" s="5" t="s">
@@ -4395,21 +4378,21 @@
       <c r="O57" s="5">
         <v>0</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="15">
         <v>2270</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="30">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4427,7 +4410,7 @@
       <c r="H58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J58" s="5" t="s">
@@ -4448,15 +4431,15 @@
       <c r="O58" s="5">
         <v>0</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="15">
         <v>2270</v>
       </c>
-      <c r="Q58" s="37" t="s">
+      <c r="Q58" s="30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B59" t="s">
@@ -4480,7 +4463,7 @@
       <c r="H59" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="5" t="s">
@@ -4492,24 +4475,24 @@
       <c r="L59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="5">
         <v>4337</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="5">
         <v>59</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="5">
         <v>70</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="15">
         <v>2270</v>
       </c>
-      <c r="Q59" s="37" t="s">
+      <c r="Q59" s="30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="40" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B60" t="s">
@@ -4530,10 +4513,10 @@
       <c r="G60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="5" t="s">
@@ -4545,30 +4528,30 @@
       <c r="L60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="5">
         <v>4337</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="5">
         <v>59</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="5">
         <v>70</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="15">
         <v>2270</v>
       </c>
-      <c r="Q60" s="37" t="s">
+      <c r="Q60" s="30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="40" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>173</v>
       </c>
       <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -4598,30 +4581,30 @@
       <c r="L61" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="5">
         <v>800</v>
       </c>
-      <c r="N61" s="20">
-        <v>0</v>
-      </c>
-      <c r="O61" s="20">
-        <v>0</v>
-      </c>
-      <c r="P61" s="16">
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="15">
         <v>2036</v>
       </c>
-      <c r="Q61" s="37">
+      <c r="Q61" s="30">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="40" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>174</v>
       </c>
       <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -4651,24 +4634,24 @@
       <c r="L62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="5">
         <v>800</v>
       </c>
-      <c r="N62" s="20">
-        <v>0</v>
-      </c>
-      <c r="O62" s="20">
-        <v>0</v>
-      </c>
-      <c r="P62" s="16">
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="15">
         <v>2182</v>
       </c>
-      <c r="Q62" s="37" t="s">
+      <c r="Q62" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>176</v>
       </c>
       <c r="B63" t="s">
@@ -4692,7 +4675,7 @@
       <c r="H63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="5" t="s">
@@ -4713,15 +4696,15 @@
       <c r="O63" s="5">
         <v>0</v>
       </c>
-      <c r="P63" s="16">
+      <c r="P63" s="15">
         <v>2991</v>
       </c>
-      <c r="Q63" s="37" t="s">
+      <c r="Q63" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>178</v>
       </c>
       <c r="B64" t="s">
@@ -4745,7 +4728,7 @@
       <c r="H64" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="5" t="s">
@@ -4766,15 +4749,15 @@
       <c r="O64" s="5">
         <v>0</v>
       </c>
-      <c r="P64" s="16">
+      <c r="P64" s="15">
         <v>2270</v>
       </c>
-      <c r="Q64" s="37" t="s">
+      <c r="Q64" s="30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
         <v>180</v>
       </c>
       <c r="B65" t="s">
@@ -4798,7 +4781,7 @@
       <c r="H65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J65" s="5" t="s">
@@ -4819,27 +4802,27 @@
       <c r="O65" s="5">
         <v>0</v>
       </c>
-      <c r="P65" s="16">
+      <c r="P65" s="15">
         <v>1885</v>
       </c>
-      <c r="Q65" s="37" t="s">
+      <c r="Q65" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="40" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
         <v>181</v>
       </c>
       <c r="B66" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -4872,27 +4855,27 @@
       <c r="O66" s="5">
         <v>0</v>
       </c>
-      <c r="P66" s="16">
+      <c r="P66" s="15">
         <v>3242</v>
       </c>
-      <c r="Q66" s="37">
+      <c r="Q66" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
         <v>182</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -4904,7 +4887,7 @@
       <c r="H67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I67" s="12" t="s">
+      <c r="I67" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J67" s="5" t="s">
@@ -4925,15 +4908,15 @@
       <c r="O67" s="5">
         <v>398</v>
       </c>
-      <c r="P67" s="16">
+      <c r="P67" s="15">
         <v>2991</v>
       </c>
-      <c r="Q67" s="37" t="s">
+      <c r="Q67" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
         <v>184</v>
       </c>
       <c r="B68" t="s">
@@ -4945,7 +4928,7 @@
       <c r="D68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -4954,10 +4937,10 @@
       <c r="G68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="17" t="s">
+      <c r="H68" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I68" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J68" s="5" t="s">
@@ -4978,24 +4961,24 @@
       <c r="O68" s="5">
         <v>54</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P68" s="15">
         <v>2991</v>
       </c>
-      <c r="Q68" s="37" t="s">
+      <c r="Q68" s="30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
         <v>188</v>
       </c>
       <c r="B69" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="18" t="s">
         <v>161</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -5022,30 +5005,30 @@
       <c r="L69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="5">
         <v>800</v>
       </c>
-      <c r="N69" s="20">
-        <v>0</v>
-      </c>
-      <c r="O69" s="20">
-        <v>0</v>
-      </c>
-      <c r="P69" s="16">
+      <c r="N69" s="5">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="15">
         <v>1885</v>
       </c>
-      <c r="Q69" s="37" t="s">
+      <c r="Q69" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="40" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
         <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -5075,30 +5058,30 @@
       <c r="L70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="5">
         <v>4497</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="5">
         <v>45</v>
       </c>
-      <c r="O70" s="20">
+      <c r="O70" s="5">
         <v>73</v>
       </c>
-      <c r="P70" s="16">
+      <c r="P70" s="15">
         <v>1178</v>
       </c>
-      <c r="Q70" s="37" t="s">
+      <c r="Q70" s="30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="40" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
         <v>192</v>
       </c>
       <c r="B71" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -5107,16 +5090,16 @@
       <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="19" t="s">
         <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="H71" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="I71" s="20" t="s">
         <v>116</v>
       </c>
       <c r="J71" s="5" t="s">
@@ -5128,24 +5111,24 @@
       <c r="L71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="5">
         <v>1277</v>
       </c>
-      <c r="N71" s="20">
+      <c r="N71" s="5">
         <v>13</v>
       </c>
-      <c r="O71" s="20">
-        <v>0</v>
-      </c>
-      <c r="P71" s="23">
+      <c r="O71" s="5">
+        <v>0</v>
+      </c>
+      <c r="P71" s="21">
         <v>747</v>
       </c>
-      <c r="Q71" s="37" t="s">
+      <c r="Q71" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="40" t="s">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
         <v>194</v>
       </c>
       <c r="B72" t="s">
@@ -5169,13 +5152,13 @@
       <c r="H72" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="11" t="s">
         <v>63</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K72" s="18" t="s">
+      <c r="K72" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -5190,15 +5173,15 @@
       <c r="O72" s="5">
         <v>0</v>
       </c>
-      <c r="P72" s="16">
+      <c r="P72" s="15">
         <v>2991</v>
       </c>
-      <c r="Q72" s="37" t="s">
+      <c r="Q72" s="30" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="40" t="s">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
         <v>197</v>
       </c>
       <c r="B73" t="s">
@@ -5243,15 +5226,15 @@
       <c r="O73" s="5">
         <v>0</v>
       </c>
-      <c r="P73" s="16">
+      <c r="P73" s="15">
         <v>3604</v>
       </c>
-      <c r="Q73" s="37">
+      <c r="Q73" s="30">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="40" t="s">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B74" t="s">
@@ -5275,7 +5258,7 @@
       <c r="H74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="12" t="s">
+      <c r="I74" s="11" t="s">
         <v>63</v>
       </c>
       <c r="J74" s="5" t="s">
@@ -5296,15 +5279,15 @@
       <c r="O74" s="5">
         <v>0</v>
       </c>
-      <c r="P74" s="24">
+      <c r="P74" s="15">
         <v>2182</v>
       </c>
-      <c r="Q74" s="37" t="s">
+      <c r="Q74" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="40" t="s">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
         <v>199</v>
       </c>
       <c r="B75" t="s">
@@ -5328,7 +5311,7 @@
       <c r="H75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I75" s="12" t="s">
+      <c r="I75" s="11" t="s">
         <v>63</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -5349,15 +5332,15 @@
       <c r="O75" s="5">
         <v>0</v>
       </c>
-      <c r="P75" s="16">
+      <c r="P75" s="15">
         <v>3242</v>
       </c>
-      <c r="Q75" s="37" t="s">
+      <c r="Q75" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
         <v>200</v>
       </c>
       <c r="B76" t="s">
@@ -5381,7 +5364,7 @@
       <c r="H76" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="11" t="s">
         <v>63</v>
       </c>
       <c r="J76" s="5" t="s">
@@ -5402,21 +5385,21 @@
       <c r="O76" s="5">
         <v>0</v>
       </c>
-      <c r="P76" s="16">
+      <c r="P76" s="15">
         <v>3242</v>
       </c>
-      <c r="Q76" s="37" t="s">
+      <c r="Q76" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
         <v>202</v>
       </c>
       <c r="B77" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -5434,7 +5417,7 @@
       <c r="H77" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="11" t="s">
         <v>63</v>
       </c>
       <c r="J77" s="5" t="s">
@@ -5455,21 +5438,21 @@
       <c r="O77" s="5">
         <v>0</v>
       </c>
-      <c r="P77" s="16">
+      <c r="P77" s="15">
         <v>3242</v>
       </c>
-      <c r="Q77" s="37" t="s">
+      <c r="Q77" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="40" t="s">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B78" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -5487,7 +5470,7 @@
       <c r="H78" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="I78" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J78" s="5" t="s">
@@ -5508,21 +5491,21 @@
       <c r="O78" s="5">
         <v>0</v>
       </c>
-      <c r="P78" s="16">
+      <c r="P78" s="15">
         <v>2036</v>
       </c>
-      <c r="Q78" s="37" t="s">
+      <c r="Q78" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
         <v>205</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -5540,13 +5523,13 @@
       <c r="H79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K79" s="18" t="s">
+      <c r="K79" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L79" s="2" t="s">
@@ -5561,15 +5544,15 @@
       <c r="O79" s="5">
         <v>0</v>
       </c>
-      <c r="P79" s="16">
+      <c r="P79" s="15">
         <v>2991</v>
       </c>
-      <c r="Q79" s="37" t="s">
+      <c r="Q79" s="30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="40" t="s">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
         <v>207</v>
       </c>
       <c r="B80" t="s">
@@ -5593,7 +5576,7 @@
       <c r="H80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="I80" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -5614,21 +5597,21 @@
       <c r="O80" s="5">
         <v>0</v>
       </c>
-      <c r="P80" s="16">
+      <c r="P80" s="15">
         <v>2270</v>
       </c>
-      <c r="Q80" s="37" t="s">
+      <c r="Q80" s="30" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="40" t="s">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
         <v>209</v>
       </c>
       <c r="B81" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -5646,7 +5629,7 @@
       <c r="H81" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="I81" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="5" t="s">
@@ -5667,15 +5650,15 @@
       <c r="O81" s="5">
         <v>0</v>
       </c>
-      <c r="P81" s="24">
+      <c r="P81" s="15">
         <v>2565</v>
       </c>
-      <c r="Q81" s="37" t="s">
+      <c r="Q81" s="30" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
         <v>211</v>
       </c>
       <c r="B82" t="s">
@@ -5720,15 +5703,15 @@
       <c r="O82" s="5">
         <v>233</v>
       </c>
-      <c r="P82" s="16">
+      <c r="P82" s="15">
         <v>3242</v>
       </c>
-      <c r="Q82" s="37" t="s">
+      <c r="Q82" s="30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B83" t="s">
@@ -5773,15 +5756,15 @@
       <c r="O83" s="5">
         <v>233</v>
       </c>
-      <c r="P83" s="16">
+      <c r="P83" s="15">
         <v>3242</v>
       </c>
-      <c r="Q83" s="37">
+      <c r="Q83" s="30">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="40" t="s">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
         <v>216</v>
       </c>
       <c r="B84" t="s">
@@ -5826,15 +5809,15 @@
       <c r="O84" s="5">
         <v>233</v>
       </c>
-      <c r="P84" s="16">
+      <c r="P84" s="15">
         <v>3242</v>
       </c>
-      <c r="Q84" s="37">
+      <c r="Q84" s="30">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="40" t="s">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
         <v>217</v>
       </c>
       <c r="B85" t="s">
@@ -5879,21 +5862,21 @@
       <c r="O85" s="5">
         <v>233</v>
       </c>
-      <c r="P85" s="16">
+      <c r="P85" s="15">
         <v>3242</v>
       </c>
-      <c r="Q85" s="37" t="s">
+      <c r="Q85" s="30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="40" t="s">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
         <v>218</v>
       </c>
       <c r="B86" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -5923,30 +5906,30 @@
       <c r="L86" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M86" s="25">
+      <c r="M86" s="22">
         <v>1978</v>
       </c>
-      <c r="N86" s="25">
-        <v>0</v>
-      </c>
-      <c r="O86" s="25">
+      <c r="N86" s="22">
+        <v>0</v>
+      </c>
+      <c r="O86" s="22">
         <v>32</v>
       </c>
-      <c r="P86" s="16">
+      <c r="P86" s="15">
         <v>2182</v>
       </c>
-      <c r="Q86" s="37" t="s">
+      <c r="Q86" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="40" t="s">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
         <v>220</v>
       </c>
       <c r="B87" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -5976,30 +5959,30 @@
       <c r="L87" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M87" s="25">
+      <c r="M87" s="22">
         <v>1978</v>
       </c>
-      <c r="N87" s="25">
-        <v>0</v>
-      </c>
-      <c r="O87" s="25">
+      <c r="N87" s="22">
+        <v>0</v>
+      </c>
+      <c r="O87" s="22">
         <v>32</v>
       </c>
-      <c r="P87" s="16">
+      <c r="P87" s="15">
         <v>2182</v>
       </c>
-      <c r="Q87" s="37" t="s">
+      <c r="Q87" s="30" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="40" t="s">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B88" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -6017,7 +6000,7 @@
       <c r="H88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J88" s="5" t="s">
@@ -6038,24 +6021,24 @@
       <c r="O88" s="5">
         <v>247</v>
       </c>
-      <c r="P88" s="16">
+      <c r="P88" s="15">
         <v>3604</v>
       </c>
-      <c r="Q88" s="37" t="s">
+      <c r="Q88" s="30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
         <v>223</v>
       </c>
       <c r="B89" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="18" t="s">
         <v>161</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -6091,27 +6074,27 @@
       <c r="O89" s="5">
         <v>78</v>
       </c>
-      <c r="P89" s="16">
+      <c r="P89" s="15">
         <v>1178</v>
       </c>
-      <c r="Q89" s="37" t="s">
+      <c r="Q89" s="30" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B90" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E90" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -6123,13 +6106,13 @@
       <c r="H90" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="I90" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K90" s="18" t="s">
+      <c r="K90" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L90" s="2" t="s">
@@ -6144,15 +6127,15 @@
       <c r="O90" s="5">
         <v>0</v>
       </c>
-      <c r="P90" s="16">
+      <c r="P90" s="15">
         <v>2112</v>
       </c>
-      <c r="Q90" s="37" t="s">
+      <c r="Q90" s="30" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="33" t="s">
         <v>227</v>
       </c>
       <c r="B91" t="s">
@@ -6176,7 +6159,7 @@
       <c r="H91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J91" s="5" t="s">
@@ -6197,15 +6180,15 @@
       <c r="O91" s="5">
         <v>67</v>
       </c>
-      <c r="P91" s="16">
+      <c r="P91" s="15">
         <v>1178</v>
       </c>
-      <c r="Q91" s="37" t="s">
+      <c r="Q91" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="40" t="s">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
         <v>229</v>
       </c>
       <c r="B92" t="s">
@@ -6229,7 +6212,7 @@
       <c r="H92" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="I92" s="11" t="s">
         <v>53</v>
       </c>
       <c r="J92" s="5" t="s">
@@ -6250,15 +6233,15 @@
       <c r="O92" s="5">
         <v>109</v>
       </c>
-      <c r="P92" s="16">
+      <c r="P92" s="15">
         <v>2182</v>
       </c>
-      <c r="Q92" s="37" t="s">
+      <c r="Q92" s="30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
         <v>231</v>
       </c>
       <c r="B93" t="s">
@@ -6282,7 +6265,7 @@
       <c r="H93" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="I93" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J93" s="5" t="s">
@@ -6294,24 +6277,24 @@
       <c r="L93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M93" s="20">
+      <c r="M93" s="5">
         <v>800</v>
       </c>
-      <c r="N93" s="20">
-        <v>0</v>
-      </c>
-      <c r="O93" s="20">
-        <v>0</v>
-      </c>
-      <c r="P93" s="16">
+      <c r="N93" s="5">
+        <v>0</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0</v>
+      </c>
+      <c r="P93" s="15">
         <v>2991</v>
       </c>
-      <c r="Q93" s="37" t="s">
+      <c r="Q93" s="30" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
         <v>233</v>
       </c>
       <c r="B94" t="s">
@@ -6335,89 +6318,89 @@
       <c r="H94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I94" s="28" t="s">
+      <c r="I94" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J94" s="29" t="s">
+      <c r="J94" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K94" s="30" t="s">
+      <c r="K94" s="26" t="s">
         <v>48</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M94" s="20">
+      <c r="M94" s="5">
         <v>800</v>
       </c>
-      <c r="N94" s="20">
-        <v>0</v>
-      </c>
-      <c r="O94" s="20">
-        <v>0</v>
-      </c>
-      <c r="P94" s="16">
+      <c r="N94" s="5">
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0</v>
+      </c>
+      <c r="P94" s="15">
         <v>2991</v>
       </c>
-      <c r="Q94" s="37" t="s">
+      <c r="Q94" s="30" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="40" t="s">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
         <v>236</v>
       </c>
       <c r="B95" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="31" t="s">
+      <c r="C95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E95" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="G95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="31" t="s">
+      <c r="H95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I95" s="32" t="s">
+      <c r="I95" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="20" t="s">
+      <c r="J95" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K95" s="33" t="s">
+      <c r="K95" s="17" t="s">
         <v>48</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M95" s="20">
+      <c r="M95" s="5">
         <v>800</v>
       </c>
-      <c r="N95" s="20">
-        <v>0</v>
-      </c>
-      <c r="O95" s="20">
-        <v>0</v>
-      </c>
-      <c r="P95" s="24">
+      <c r="N95" s="5">
+        <v>0</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0</v>
+      </c>
+      <c r="P95" s="15">
         <v>2991</v>
       </c>
-      <c r="Q95" s="37" t="s">
+      <c r="Q95" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="33" t="s">
         <v>237</v>
       </c>
       <c r="B96" t="s">
@@ -6441,7 +6424,7 @@
       <c r="H96" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I96" s="32" t="s">
+      <c r="I96" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J96" s="5" t="s">
@@ -6453,24 +6436,24 @@
       <c r="L96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M96" s="20">
+      <c r="M96" s="5">
         <v>800</v>
       </c>
-      <c r="N96" s="20">
-        <v>0</v>
-      </c>
-      <c r="O96" s="20">
-        <v>0</v>
-      </c>
-      <c r="P96" s="16">
+      <c r="N96" s="5">
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0</v>
+      </c>
+      <c r="P96" s="15">
         <v>2270</v>
       </c>
-      <c r="Q96" s="37" t="s">
+      <c r="Q96" s="30" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
         <v>239</v>
       </c>
       <c r="B97" t="s">
@@ -6494,7 +6477,7 @@
       <c r="H97" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I97" s="32" t="s">
+      <c r="I97" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J97" s="5" t="s">
@@ -6515,15 +6498,15 @@
       <c r="O97" s="5">
         <v>121</v>
       </c>
-      <c r="P97" s="16">
+      <c r="P97" s="15">
         <v>2270</v>
       </c>
-      <c r="Q97" s="37" t="s">
+      <c r="Q97" s="30" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="33" t="s">
         <v>241</v>
       </c>
       <c r="B98" t="s">
@@ -6547,7 +6530,7 @@
       <c r="H98" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I98" s="32" t="s">
+      <c r="I98" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J98" s="5" t="s">
@@ -6559,19 +6542,19 @@
       <c r="L98" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M98" s="20">
+      <c r="M98" s="5">
         <v>800</v>
       </c>
-      <c r="N98" s="20">
-        <v>0</v>
-      </c>
-      <c r="O98" s="20">
-        <v>0</v>
-      </c>
-      <c r="P98" s="16">
+      <c r="N98" s="5">
+        <v>0</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0</v>
+      </c>
+      <c r="P98" s="15">
         <v>2182</v>
       </c>
-      <c r="Q98" s="37" t="s">
+      <c r="Q98" s="30" t="s">
         <v>242</v>
       </c>
     </row>
